--- a/V650公交前端优化/高德地图V650需求-v0.2.xlsx
+++ b/V650公交前端优化/高德地图V650需求-v0.2.xlsx
@@ -3688,321 +3688,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{970EB522-B9B4-2E41-833A-E0969B157BE0}" diskRevisions="1" revisionId="322" version="75">
-  <header guid="{934F48DC-CD92-4CA4-90DD-8FAB5B50F7DE}" dateTime="2014-04-09T09:45:30" maxSheetId="3" userName="张航" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E3593C65-2414-4ABD-A168-F12FB2A60022}" dateTime="2014-04-09T09:50:51" maxSheetId="3" userName="张航" r:id="rId2" minRId="1" maxRId="4">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-    <reviewedList count="4">
-      <reviewed rId="1"/>
-      <reviewed rId="2"/>
-      <reviewed rId="3"/>
-      <reviewed rId="4"/>
-    </reviewedList>
-  </header>
-  <header guid="{59890AEC-48B6-4CD0-B3FF-1C015D774060}" dateTime="2014-04-09T09:51:19" maxSheetId="3" userName="张航" r:id="rId3" minRId="5">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-    <reviewedList count="1">
-      <reviewed rId="5"/>
-    </reviewedList>
-  </header>
-  <header guid="{DD735A10-2E80-4B3E-ABC4-391BAA9E3D56}" dateTime="2014-04-09T09:52:53" maxSheetId="3" userName="张航" r:id="rId4" minRId="6" maxRId="7">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-    <reviewedList count="2">
-      <reviewed rId="6"/>
-      <reviewed rId="7"/>
-    </reviewedList>
-  </header>
-  <header guid="{8637957C-423C-4659-AE49-CBA29908865D}" dateTime="2014-04-09T09:54:50" maxSheetId="3" userName="张航" r:id="rId5" minRId="8" maxRId="9">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-    <reviewedList count="2">
-      <reviewed rId="8"/>
-      <reviewed rId="9"/>
-    </reviewedList>
-  </header>
-  <header guid="{F332BA9F-F91F-43F3-A150-86969DC3FD29}" dateTime="2014-04-09T09:57:25" maxSheetId="3" userName="张航" r:id="rId6" minRId="11" maxRId="12">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-    <reviewedList count="2">
-      <reviewed rId="11"/>
-      <reviewed rId="12"/>
-    </reviewedList>
-  </header>
-  <header guid="{82289952-A7E3-4811-A2E3-B79AF9B93F27}" dateTime="2014-04-09T09:58:10" maxSheetId="3" userName="张航" r:id="rId7" minRId="14">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-    <reviewedList count="1">
-      <reviewed rId="14"/>
-    </reviewedList>
-  </header>
-  <header guid="{D4FB59FE-6615-4867-AA23-C20AEDFD266F}" dateTime="2014-04-09T10:16:49" maxSheetId="3" userName="张航" r:id="rId8" minRId="15">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-    <reviewedList count="1">
-      <reviewed rId="15"/>
-    </reviewedList>
-  </header>
-  <header guid="{525ED702-5E39-4819-9987-A4A31353251B}" dateTime="2014-04-09T10:19:36" maxSheetId="3" userName="张航" r:id="rId9" minRId="16">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-    <reviewedList count="1">
-      <reviewed rId="16"/>
-    </reviewedList>
-  </header>
-  <header guid="{9584523C-AA8C-4DC9-9D7B-76794F84A215}" dateTime="2014-04-09T10:21:19" maxSheetId="3" userName="张航" r:id="rId10" minRId="19" maxRId="21">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-    <reviewedList count="3">
-      <reviewed rId="19"/>
-      <reviewed rId="20"/>
-      <reviewed rId="21"/>
-    </reviewedList>
-  </header>
-  <header guid="{FD12B396-3051-47E9-9D6E-F191AE2FA996}" dateTime="2014-04-09T10:23:40" maxSheetId="3" userName="张航" r:id="rId11" minRId="22">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E7CC8F9F-4687-469C-8678-EFB107A2B078}" dateTime="2014-04-09T10:27:58" maxSheetId="3" userName="张航" r:id="rId12">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7B7D8D60-5217-4A7A-A143-92042439C941}" dateTime="2014-04-09T10:30:27" maxSheetId="3" userName="张航" r:id="rId13" minRId="23">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{241D0343-5815-4150-96EE-A3C750893463}" dateTime="2014-04-09T10:30:49" maxSheetId="3" userName="张航" r:id="rId14">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E3D198DB-6772-427C-ABA9-87CBA6A1F7E1}" dateTime="2014-04-09T10:31:14" maxSheetId="3" userName="张航" r:id="rId15">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{ED8242C0-FBDC-44B6-9DC0-484CF2E817C2}" dateTime="2014-04-09T10:31:32" maxSheetId="3" userName="张航" r:id="rId16">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EBF6B245-46BE-4B4F-9467-28B3BC3F8C85}" dateTime="2014-04-09T10:34:55" maxSheetId="3" userName="张航" r:id="rId17" minRId="25" maxRId="27">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{960C2DB4-6660-43B9-B82C-6B876F9F0963}" dateTime="2014-04-09T10:35:39" maxSheetId="3" userName="张航" r:id="rId18" minRId="28" maxRId="31">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{45C99D85-7EF7-4FCC-BEF5-1418ABFC2F16}" dateTime="2014-04-09T10:37:43" maxSheetId="3" userName="张航" r:id="rId19">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B7B0F25E-CABB-4C7E-999B-7DA538C368DB}" dateTime="2014-04-09T11:01:31" maxSheetId="3" userName="张航" r:id="rId20">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A2F4A5F5-AF05-4974-B019-24F31A72523C}" dateTime="2014-04-09T11:04:13" maxSheetId="3" userName="张航" r:id="rId21" minRId="34">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F4D9F9C0-9931-4FFD-918D-EFAD7BAF1082}" dateTime="2014-04-09T11:04:53" maxSheetId="3" userName="张航" r:id="rId22" minRId="35">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9270530F-C3BA-4626-93EE-545A9A7304C8}" dateTime="2014-04-09T11:09:05" maxSheetId="3" userName="张航" r:id="rId23" minRId="36" maxRId="37">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F2CA6A2F-740E-48D9-B275-DDAA8F1C4B66}" dateTime="2014-04-09T11:09:10" maxSheetId="3" userName="张航" r:id="rId24" minRId="38">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C617998E-5BBF-47C6-8CD6-E2049C08724F}" dateTime="2014-04-09T11:09:50" maxSheetId="3" userName="张航" r:id="rId25" minRId="39">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EED82758-3E6E-417A-B654-20D5D79098C2}" dateTime="2014-04-09T11:10:27" maxSheetId="3" userName="张航" r:id="rId26" minRId="40">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4AB9BB1B-489F-40E4-8A48-BBCA5B396928}" dateTime="2014-04-09T11:12:48" maxSheetId="3" userName="张航" r:id="rId27" minRId="41">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{99ADAB4D-3C00-44DF-8E86-D8442EC8D74E}" dateTime="2014-04-09T11:21:48" maxSheetId="3" userName="张航" r:id="rId28" minRId="42">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7EDA0677-2061-44B9-9B31-305AF4640CD0}" dateTime="2014-04-09T11:23:32" maxSheetId="3" userName="张航" r:id="rId29" minRId="43" maxRId="47">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3C3F7D2E-8B0D-405B-8ACB-DDA996F70F63}" dateTime="2014-04-09T11:23:42" maxSheetId="3" userName="张航" r:id="rId30">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{92EA57E5-B69B-4A25-81B6-41340129D16F}" dateTime="2014-04-09T11:24:03" maxSheetId="3" userName="张航" r:id="rId31">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C156C66F-2C6E-4408-92D8-22F13DF9BE80}" dateTime="2014-04-09T14:32:50" maxSheetId="3" userName="李海鸥" r:id="rId32">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6F364A62-B19F-46F6-971D-2697CFE92AA7}" dateTime="2014-04-09T15:51:26" maxSheetId="3" userName="张航" r:id="rId33" minRId="49">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3DDC12A3-B929-4DEE-A89A-BF9C6995A18D}" dateTime="2014-04-09T15:52:38" maxSheetId="3" userName="张航" r:id="rId34" minRId="50">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BD4866A4-BEC0-450E-AB39-21B6B4C9DD34}" dateTime="2014-04-09T15:53:09" maxSheetId="3" userName="张航" r:id="rId35" minRId="52" maxRId="54">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BBB4AABB-BA80-4F87-9919-92F8277E73B6}" dateTime="2014-04-09T16:26:55" maxSheetId="4" userName="张航" r:id="rId36" minRId="55" maxRId="56">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6BC13AC2-9B46-4F7E-948F-AD9E8AA82959}" dateTime="2014-04-09T16:29:00" maxSheetId="4" userName="张航" r:id="rId37" minRId="58">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F30795A8-086E-4D16-9AB2-527B263151BE}" dateTime="2014-04-09T16:30:21" maxSheetId="4" userName="张航" r:id="rId38" minRId="59">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D56812B8-84C1-4379-A09E-97B2D6B4E166}" dateTime="2014-04-09T16:31:10" maxSheetId="4" userName="张航" r:id="rId39">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A60A9C1D-2710-4AFF-87D8-1A0BFDBA887B}" dateTime="2014-04-09T16:34:09" maxSheetId="4" userName="张航" r:id="rId40" minRId="60" maxRId="61">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{224991F6-E1E4-4421-AEB6-46346F756D9F}" dateTime="2014-04-09T16:42:09" maxSheetId="4" userName="张航" r:id="rId41" minRId="62">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C52FD434-86E1-4E25-87A9-5B83534EEFAF}" dateTime="2014-04-09T16:42:36" maxSheetId="4" userName="张航" r:id="rId42" minRId="63" maxRId="66">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9A8FAC50-F5B0-4CF4-872D-4E04D06B52F3}" dateTime="2014-04-09T16:43:00" maxSheetId="4" userName="张航" r:id="rId43" minRId="67" maxRId="70">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1D3A6638-C940-4A7C-9639-DB5CD9B9AEA9}" dateTime="2014-04-09T17:39:35" maxSheetId="4" userName="张航" r:id="rId44" minRId="71" maxRId="82">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7039FFBE-CB83-42E9-9218-7686812322E4}" dateTime="2014-04-09T17:41:18" maxSheetId="4" userName="张航" r:id="rId45" minRId="83">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
   <header guid="{1B2D897C-3685-472F-8EB5-681E70F5D683}" dateTime="2014-04-09T18:57:54" maxSheetId="4" userName="李海鸥" r:id="rId46" minRId="84">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -4531,69 +4216,6 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="B200:B205">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="19" sId="2">
-    <oc r="D185" t="inlineStr">
-      <is>
-        <t>挖宝项目呼起</t>
-      </is>
-    </oc>
-    <nc r="D185" t="inlineStr">
-      <is>
-        <t>挖宝项目呼起</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="20" sId="2">
-    <oc r="D205" t="inlineStr">
-      <is>
-        <t>与团购抢购资格交互</t>
-      </is>
-    </oc>
-    <nc r="D205" t="inlineStr">
-      <is>
-        <t>消息推送：挖宝项目呼起</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="2">
-    <oc r="F205" t="inlineStr">
-      <is>
-        <t>吴聪聪</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="F205"/>
-  </rcc>
-  <rfmt sheetId="2" sqref="B200:B205">
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="B200:B205">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog100.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="269" sId="2">
@@ -4891,28 +4513,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="22" sId="2">
-    <oc r="D213" t="inlineStr">
-      <is>
-        <t xml:space="preserve">
-2、美食类标签搜索rank效果优化（含营业时间筛选）
-4、院线电影标签特型</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D213" t="inlineStr">
-      <is>
-        <t>2、美食类标签搜索rank效果优化（含营业时间筛选）
-4、院线电影标签特型</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog110.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rrc rId="294" sId="2" ref="A49:XFD49" action="insertRow"/>
@@ -5231,169 +4831,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="C10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C12" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C16" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C17" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C18" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C23" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C33" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C34" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C41" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C42" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C43" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C44" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C49" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C50" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C57" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog120.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="321" sId="2">
@@ -5416,1667 +4853,6 @@
     <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
   </rdn>
   <rcv guid="{143A0C91-D2D8-3A45-8918-737018F87591}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="23" sId="2">
-    <nc r="A184" t="inlineStr">
-      <is>
-        <t>运营</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="A212:I212" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A184:I184" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="double">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="A213:I213" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="double">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="A184:A187">
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_95FB2898_2E7B_4715_9BD2_6A4CC703BBAE_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'650需求'!$A$1:$H$1</formula>
-    <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
-  </rdn>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="B67:B71">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rrc rId="25" sId="2" ref="A67:XFD67" action="insertRow"/>
-  <rcc rId="26" sId="2">
-    <oc r="B68" t="inlineStr">
-      <is>
-        <t>POI新版优化</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B68" t="inlineStr">
-      <is>
-        <t>POI新版优化</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" xfDxf="1" s="1" sqref="B67" start="0" length="0">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="27" sId="2">
-    <nc r="B67" t="inlineStr">
-      <is>
-        <t>POI新版优化</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="B67:B72">
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="B67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="28" sId="2">
-    <nc r="C67" t="inlineStr">
-      <is>
-        <t>POI页面大改版</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="2">
-    <nc r="E67" t="inlineStr">
-      <is>
-        <t>P0</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="30" sId="2">
-    <nc r="F67" t="inlineStr">
-      <is>
-        <t>任晓宇</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="31" sId="2">
-    <nc r="H67" t="inlineStr">
-      <is>
-        <t>褚静</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_95FB2898_2E7B_4715_9BD2_6A4CC703BBAE_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'650需求'!$A$1:$H$1</formula>
-    <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
-  </rdn>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="1" sId="2" ref="A206:XFD206" action="insertRow"/>
-  <rcc rId="2" sId="2">
-    <nc r="F206" t="inlineStr">
-      <is>
-        <t>吴聪聪</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="2">
-    <nc r="D206" t="inlineStr">
-      <is>
-        <t>与团购抢购资格交互</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="2">
-    <nc r="D120" t="inlineStr">
-      <is>
-        <t>详见“挖宝”</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="D120" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="C105" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="D120" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_95FB2898_2E7B_4715_9BD2_6A4CC703BBAE_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'650需求'!$A$1:$H$1</formula>
-    <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
-  </rdn>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="34" sId="2">
-    <nc r="H105" t="inlineStr">
-      <is>
-        <t>黄健</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="C105">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="35" sId="2">
-    <nc r="H41" t="inlineStr">
-      <is>
-        <t>向英</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="36" sId="2">
-    <nc r="I105" t="inlineStr">
-      <is>
-        <t>4.2-4.14</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="37" sId="2">
-    <nc r="D118" t="inlineStr">
-      <is>
-        <t>携程+同程</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="38" sId="2">
-    <oc r="D118" t="inlineStr">
-      <is>
-        <t>携程+同程</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D118" t="inlineStr">
-      <is>
-        <t>携程+同程？？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="39" sId="2">
-    <oc r="D118" t="inlineStr">
-      <is>
-        <t>携程+同程？？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D118" t="inlineStr">
-      <is>
-        <t>携程+同程？？纯数据接入</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="40" sId="2">
-    <oc r="D118" t="inlineStr">
-      <is>
-        <t>携程+同程？？纯数据接入</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D118" t="inlineStr">
-      <is>
-        <t>携程+同程？？纯数据接入（数据PM宁国东）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="41" sId="2">
-    <nc r="I118" t="inlineStr">
-      <is>
-        <t>原计划4.10数据上线，目前携程接口有问题，同程已经上线</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="42" sId="2">
-    <nc r="H103" t="inlineStr">
-      <is>
-        <t>Jeff</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="43" sId="2" eol="1" ref="A259:XFD259" action="insertRow"/>
-  <rcc rId="44" sId="2">
-    <nc r="A259" t="inlineStr">
-      <is>
-        <t>其他</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="45" sId="2">
-    <nc r="C259" t="inlineStr">
-      <is>
-        <t>WO+生活馆</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="46" sId="2">
-    <nc r="H259" t="inlineStr">
-      <is>
-        <t>黄健</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="47" sId="2">
-    <nc r="I259" t="inlineStr">
-      <is>
-        <t>4.10提测，4.15上线</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="5" sId="2" ref="A82:XFD82" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" s="1" sqref="A82:XFD82" start="0" length="0">
-      <dxf>
-        <font>
-          <b val="0"/>
-          <i val="0"/>
-          <strike val="0"/>
-          <condense val="0"/>
-          <extend val="0"/>
-          <outline val="0"/>
-          <shadow val="0"/>
-          <u val="none"/>
-          <vertAlign val="baseline"/>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="宋体"/>
-          <scheme val="minor"/>
-        </font>
-        <numFmt numFmtId="0" formatCode="General"/>
-        <fill>
-          <patternFill patternType="none">
-            <fgColor indexed="64"/>
-            <bgColor indexed="65"/>
-          </patternFill>
-        </fill>
-        <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-        <border diagonalUp="0" diagonalDown="0" outline="0">
-          <left/>
-          <right/>
-          <top/>
-          <bottom/>
-        </border>
-        <protection locked="1" hidden="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="A82" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <left style="medium">
-            <color indexed="64"/>
-          </left>
-          <right style="medium">
-            <color indexed="64"/>
-          </right>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="B82" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" dxf="1">
-      <nc r="C82" t="inlineStr">
-        <is>
-          <t>挖宝项目</t>
-          <phoneticPr fontId="0" type="noConversion"/>
-        </is>
-      </nc>
-      <ndxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor rgb="FFFF0000"/>
-          </patternFill>
-        </fill>
-        <alignment horizontal="general" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="2" sqref="D82" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" dxf="1">
-      <nc r="E82" t="inlineStr">
-        <is>
-          <t>P1</t>
-          <phoneticPr fontId="0" type="noConversion"/>
-        </is>
-      </nc>
-      <ndxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="2" sqref="F82" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="G82" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="H82" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="I82" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="medium">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-  </rrc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="A259" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="I259" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A259:I259" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" s="1" sqref="A259" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" s="1" sqref="B259" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" s="1" sqref="C259" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" s="1" sqref="D259" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" s="1" sqref="E259" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" s="1" sqref="F259" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" s="1" sqref="G259" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" s="1" sqref="H259" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" s="1" sqref="I259" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_DC93CDAD_D4D2_449E_9A3D_F809F8194842_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'650需求'!$A$1:$H$1</formula>
-  </rdn>
-  <rcv guid="{DC93CDAD-D4D2-449E-9A3D-F809F8194842}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="49" sId="2">
-    <oc r="D15" t="inlineStr">
-      <is>
-        <t>如限行日期、保养、保险、违章等</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D15"/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="50" sId="2">
-    <nc r="G41" t="inlineStr">
-      <is>
-        <t>交通信息部；正柱服务；向英H5前端</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_95FB2898_2E7B_4715_9BD2_6A4CC703BBAE_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'650需求'!$A$1:$H$1</formula>
-    <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
-  </rdn>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="52" sId="2">
-    <oc r="D41" t="inlineStr">
-      <is>
-        <t>（及每天推动动态）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D41" t="inlineStr">
-      <is>
-        <t>及每天推动动态</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="53" sId="2">
-    <oc r="D42" t="inlineStr">
-      <is>
-        <t>（一键叫车，广告位服务）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D42" t="inlineStr">
-      <is>
-        <t>一键叫车，广告位服务</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="54" sId="2">
-    <oc r="D44" t="inlineStr">
-      <is>
-        <t>（最近地铁站）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D44" t="inlineStr">
-      <is>
-        <t>最近地铁站</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <ris rId="55" sheetId="3" name="[高德地图V650需求-v0.1.xlsx]Sheet1" sheetPosition="2"/>
-  <rcc rId="56" sId="2">
-    <nc r="H148" t="inlineStr">
-      <is>
-        <t>AOS+尹向英</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_95FB2898_2E7B_4715_9BD2_6A4CC703BBAE_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'650需求'!$A$1:$H$1</formula>
-    <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
-  </rdn>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="58" sId="2">
-    <nc r="I67" t="inlineStr">
-      <is>
-        <t>5人x6日；4月16日提测</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="59" sId="2">
-    <oc r="C165" t="inlineStr">
-      <is>
-        <t>附近外卖</t>
-      </is>
-    </oc>
-    <nc r="C165" t="inlineStr">
-      <is>
-        <t>附近外卖-淘点点</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="B165:B170">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="6" sId="2">
-    <nc r="H257" t="inlineStr">
-      <is>
-        <t>潘振兴</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="2">
-    <nc r="H258" t="inlineStr">
-      <is>
-        <t>潘振兴</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="60" sId="2">
-    <oc r="D167" t="inlineStr">
-      <is>
-        <t>外卖免送餐费筛选</t>
-      </is>
-    </oc>
-    <nc r="D167" t="inlineStr">
-      <is>
-        <t>外卖免送餐费筛选</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="61" sId="2">
-    <nc r="H201" t="inlineStr">
-      <is>
-        <t>方正柱（服务）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="62" sId="2">
-    <nc r="I192" t="inlineStr">
-      <is>
-        <t>4.16UI交付；4.21服务完成；4.23客户端研发完成提测</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="63" sId="2">
-    <nc r="H202" t="inlineStr">
-      <is>
-        <t>方正柱（服务）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="64" sId="2">
-    <nc r="H203" t="inlineStr">
-      <is>
-        <t>方正柱（服务）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="65" sId="2">
-    <nc r="H204" t="inlineStr">
-      <is>
-        <t>方正柱（服务）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="66" sId="2">
-    <nc r="H205" t="inlineStr">
-      <is>
-        <t>方正柱（服务）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="67" sId="2">
-    <oc r="H202" t="inlineStr">
-      <is>
-        <t>方正柱（服务）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="H202"/>
-  </rcc>
-  <rcc rId="68" sId="2">
-    <oc r="H205" t="inlineStr">
-      <is>
-        <t>方正柱（服务）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="H205"/>
-  </rcc>
-  <rcc rId="69" sId="2">
-    <oc r="H204" t="inlineStr">
-      <is>
-        <t>方正柱（服务）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="H204"/>
-  </rcc>
-  <rcc rId="70" sId="2">
-    <oc r="H203" t="inlineStr">
-      <is>
-        <t>方正柱（服务）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="H203"/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="71" sId="2">
-    <nc r="I3" t="inlineStr">
-      <is>
-        <t>可能性不大</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="72" sId="2">
-    <nc r="I7" t="inlineStr">
-      <is>
-        <t>纯服务</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="73" sId="2">
-    <nc r="G7" t="inlineStr">
-      <is>
-        <t>李宾服务</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="74" sId="2">
-    <nc r="I8" t="inlineStr">
-      <is>
-        <t>可不上</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="75" sId="2">
-    <nc r="I9" t="inlineStr">
-      <is>
-        <t>客户端现出Demo评估效果</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="76" sId="2">
-    <nc r="G10" t="inlineStr">
-      <is>
-        <t>TBT SDK</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="77" sId="2">
-    <nc r="I11" t="inlineStr">
-      <is>
-        <t>尽量排</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="78" sId="2">
-    <nc r="I15" t="inlineStr">
-      <is>
-        <t>优先级低</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="79" sId="2">
-    <nc r="I19" t="inlineStr">
-      <is>
-        <t>无此规划？？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="80" sId="2">
-    <nc r="I20" t="inlineStr">
-      <is>
-        <t>无此规划？？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="81" sId="2">
-    <nc r="I21" t="inlineStr">
-      <is>
-        <t>优先级低</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="82" sId="2" ref="A35:XFD35" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" s="1" sqref="A35:XFD35" start="0" length="0">
-      <dxf>
-        <font>
-          <b val="0"/>
-          <i val="0"/>
-          <strike val="0"/>
-          <condense val="0"/>
-          <extend val="0"/>
-          <outline val="0"/>
-          <shadow val="0"/>
-          <u val="none"/>
-          <vertAlign val="baseline"/>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="宋体"/>
-          <scheme val="minor"/>
-        </font>
-        <numFmt numFmtId="0" formatCode="General"/>
-        <fill>
-          <patternFill patternType="none">
-            <fgColor indexed="64"/>
-            <bgColor indexed="65"/>
-          </patternFill>
-        </fill>
-        <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-        <border diagonalUp="0" diagonalDown="0" outline="0">
-          <left/>
-          <right/>
-          <top/>
-          <bottom/>
-        </border>
-        <protection locked="1" hidden="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="A35" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <left style="medium">
-            <color indexed="64"/>
-          </left>
-          <right style="medium">
-            <color indexed="64"/>
-          </right>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" s="1" sqref="B35" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="10"/>
-          <color theme="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" wrapText="0" readingOrder="0"/>
-        <border outline="0">
-          <left style="medium">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" s="1" dxf="1">
-      <nc r="C35" t="inlineStr">
-        <is>
-          <t>步行导航页面及显示</t>
-          <phoneticPr fontId="0" type="noConversion"/>
-        </is>
-      </nc>
-      <ndxf>
-        <font>
-          <sz val="10"/>
-          <color theme="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="medium">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="2" sqref="D35" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" s="1" dxf="1">
-      <nc r="E35" t="inlineStr">
-        <is>
-          <t>p1</t>
-          <phoneticPr fontId="0" type="noConversion"/>
-        </is>
-      </nc>
-      <ndxf>
-        <font>
-          <sz val="10"/>
-          <color theme="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="2" s="1" dxf="1">
-      <nc r="F35" t="inlineStr">
-        <is>
-          <t>张雅茜</t>
-          <phoneticPr fontId="0" type="noConversion"/>
-        </is>
-      </nc>
-      <ndxf>
-        <font>
-          <sz val="10"/>
-          <color theme="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="2" sqref="G35" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="H35" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor theme="0"/>
-          </patternFill>
-        </fill>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="I35" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="medium">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-  </rrc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="83" sId="2">
-    <nc r="I40" t="inlineStr">
-      <is>
-        <t>服务下周提测，客户端下周二提交功能版本，核对实现度</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
 </revisions>
 </file>
 
@@ -7155,63 +4931,6 @@
       </is>
     </nc>
   </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="8" sId="2">
-    <oc r="D220" t="inlineStr">
-      <is>
-        <t xml:space="preserve">1、重点包含地图及公交线路底图结果展现内容优化
-2、图面tips展现内容优化“点击查看详情”
-</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D220" t="inlineStr">
-      <is>
-        <t>1、重点包含地图及公交线路底图结果展现内容优化
-2、图面tips展现内容优化“点击查看详情”</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="2">
-    <oc r="D238" t="inlineStr">
-      <is>
-        <t xml:space="preserve">1、 附近影院列表支持筛选
-a) 支持商圈筛选
-b) 支持地铁周边筛选
-c) 支持区县筛选
-2、 附近影院支持调整排序
-a) 默认排序
-b) 按照价格排序
-c) 按照距离排序
-</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D238" t="inlineStr">
-      <is>
-        <t>1、 附近影院列表支持筛选
-a) 支持商圈筛选
-b) 支持地铁周边筛选
-c) 支持区县筛选
-2、 附近影院支持调整排序
-a) 默认排序
-b) 按照价格排序
-c) 按照距离排序</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_95FB2898_2E7B_4715_9BD2_6A4CC703BBAE_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'650需求'!$A$1:$H$1</formula>
-    <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
-  </rdn>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="add"/>
 </revisions>
 </file>
 
@@ -7914,33 +5633,6 @@
     <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
   </rdn>
   <rcv guid="{143A0C91-D2D8-3A45-8918-737018F87591}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="11" sId="2">
-    <nc r="E148" t="inlineStr">
-      <is>
-        <t>P0</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="12" sId="2">
-    <nc r="E149" t="inlineStr">
-      <is>
-        <t>P0</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_95FB2898_2E7B_4715_9BD2_6A4CC703BBAE_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'650需求'!$A$1:$H$1</formula>
-    <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
-  </rdn>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="add"/>
 </revisions>
 </file>
 
@@ -8713,264 +6405,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="14" sId="2" ref="A104:XFD104" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" s="1" sqref="A104:XFD104" start="0" length="0">
-      <dxf>
-        <font>
-          <b val="0"/>
-          <i val="0"/>
-          <strike val="0"/>
-          <condense val="0"/>
-          <extend val="0"/>
-          <outline val="0"/>
-          <shadow val="0"/>
-          <u val="none"/>
-          <vertAlign val="baseline"/>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="宋体"/>
-          <scheme val="minor"/>
-        </font>
-        <numFmt numFmtId="0" formatCode="General"/>
-        <fill>
-          <patternFill patternType="none">
-            <fgColor indexed="64"/>
-            <bgColor indexed="65"/>
-          </patternFill>
-        </fill>
-        <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-        <border diagonalUp="0" diagonalDown="0" outline="0">
-          <left/>
-          <right/>
-          <top/>
-          <bottom/>
-        </border>
-        <protection locked="1" hidden="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="A104" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <border outline="0">
-          <left style="medium">
-            <color indexed="64"/>
-          </left>
-          <right style="medium">
-            <color indexed="64"/>
-          </right>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" s="1" sqref="B104" start="0" length="0">
-      <dxf>
-        <font>
-          <b/>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor rgb="FFF2F2F2"/>
-          </patternFill>
-        </fill>
-        <alignment readingOrder="0"/>
-        <border outline="0">
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" s="1" sqref="C104" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="10"/>
-          <color theme="5"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="general" wrapText="0" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" s="1" sqref="D104" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" s="1" sqref="E104" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <alignment wrapText="0" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" s="1" sqref="F104" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" wrapText="0" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="G104" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="H104" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="I104" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="12"/>
-          <color auto="1"/>
-          <name val="微软雅黑"/>
-          <scheme val="none"/>
-        </font>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="medium">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-  </rrc>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog70.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rfmt sheetId="2" sqref="A35:XFD42">
@@ -9755,37 +7189,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="15" sId="2">
-    <oc r="H1" t="inlineStr">
-      <is>
-        <t>其他角色负责人</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="H1" t="inlineStr">
-      <is>
-        <t>研发负责人</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="A1:I257" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A1:I257" start="0" length="2147483647">
-    <dxf>
-      <font/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog80.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{143A0C91-D2D8-3A45-8918-737018F87591}" action="delete"/>
@@ -10137,67 +7540,6 @@
     <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
   </rdn>
   <rcv guid="{143A0C91-D2D8-3A45-8918-737018F87591}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="B58:B63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="B152:B160">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="B147:B151">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="16" sId="2">
-    <oc r="D96" t="inlineStr">
-      <is>
-        <t> 艺龙现付非担保下单</t>
-      </is>
-    </oc>
-    <nc r="D96" t="inlineStr">
-      <is>
-        <t>艺龙现付非担保下单</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="C100">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_95FB2898_2E7B_4715_9BD2_6A4CC703BBAE_.wvu.FilterData" hidden="1"/>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_95FB2898_2E7B_4715_9BD2_6A4CC703BBAE_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'650需求'!$A$1:$H$1</formula>
-    <oldFormula>'650需求'!$A$1:$H$1</oldFormula>
-  </rdn>
-  <rcv guid="{95FB2898-2E7B-4715-9BD2-6A4CC703BBAE}" action="add"/>
 </revisions>
 </file>
 
@@ -10815,10 +8157,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{1B2D897C-3685-472F-8EB5-681E70F5D683}" name="张航" id="-1024334950" dateTime="2014-04-10T11:30:08"/>
   <userInfo guid="{970EB522-B9B4-2E41-833A-E0969B157BE0}" name="ZENG QL" id="-5453469" dateTime="2014-04-10T13:58:01"/>
-  <userInfo guid="{970EB522-B9B4-2E41-833A-E0969B157BE0}" name="fu wang" id="-318470927" dateTime="2014-05-08T18:04:34"/>
 </users>
 </file>
 
